--- a/data/Anomalias Robos PG.xlsx
+++ b/data/Anomalias Robos PG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ilspglobalsegu-my.sharepoint.com/personal/erivas_ai27_com/Documents/Documentos/Areas de Trabajo/Inteligencia de Negocios/Aplicaciones/Productivo/appRiskPG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{D367F1C8-2A34-4DF7-8CB1-3F6ECD72E320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{243D783A-C18B-4A4B-B8F2-D6ADE2C67EC3}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="8_{D367F1C8-2A34-4DF7-8CB1-3F6ECD72E320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F555BC2-360A-40BB-AEBF-184F1620C8B3}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAAEB85C-5128-4F8D-A65F-0B933F1A06B2}"/>
   </bookViews>
@@ -10426,10 +10426,10 @@
         <v>14</v>
       </c>
       <c r="J67" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K67" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L67" s="13" t="s">
         <v>1066</v>
@@ -10476,10 +10476,10 @@
         <v>14</v>
       </c>
       <c r="J68" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K68" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L68" s="13" t="s">
         <v>1</v>
@@ -10526,10 +10526,10 @@
         <v>14</v>
       </c>
       <c r="J69" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K69" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L69" s="13" t="s">
         <v>1</v>
@@ -10576,10 +10576,10 @@
         <v>14</v>
       </c>
       <c r="J70" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K70" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L70" s="13" t="s">
         <v>1066</v>
@@ -10626,10 +10626,10 @@
         <v>84</v>
       </c>
       <c r="J71" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K71" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L71" s="13" t="s">
         <v>34</v>
@@ -10676,10 +10676,10 @@
         <v>84</v>
       </c>
       <c r="J72" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K72" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L72" s="13" t="s">
         <v>34</v>
@@ -10726,10 +10726,10 @@
         <v>84</v>
       </c>
       <c r="J73" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K73" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L73" s="13" t="s">
         <v>34</v>
@@ -10776,10 +10776,10 @@
         <v>84</v>
       </c>
       <c r="J74" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K74" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L74" s="13" t="s">
         <v>34</v>
@@ -10826,10 +10826,10 @@
         <v>84</v>
       </c>
       <c r="J75" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K75" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L75" s="13" t="s">
         <v>34</v>
@@ -10876,10 +10876,10 @@
         <v>84</v>
       </c>
       <c r="J76" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K76" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L76" s="13" t="s">
         <v>34</v>
@@ -10926,10 +10926,10 @@
         <v>84</v>
       </c>
       <c r="J77" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K77" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L77" s="13" t="s">
         <v>1</v>
@@ -10976,10 +10976,10 @@
         <v>84</v>
       </c>
       <c r="J78" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K78" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L78" s="13" t="s">
         <v>1</v>
@@ -11026,10 +11026,10 @@
         <v>84</v>
       </c>
       <c r="J79" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K79" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L79" s="13" t="s">
         <v>1</v>
@@ -11076,10 +11076,10 @@
         <v>84</v>
       </c>
       <c r="J80" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K80" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L80" s="13" t="s">
         <v>113</v>
@@ -11126,10 +11126,10 @@
         <v>84</v>
       </c>
       <c r="J81" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K81" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L81" s="13" t="s">
         <v>1066</v>
@@ -11276,10 +11276,10 @@
         <v>84</v>
       </c>
       <c r="J84" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K84" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L84" s="13" t="s">
         <v>1</v>
@@ -12126,10 +12126,10 @@
         <v>84</v>
       </c>
       <c r="J101" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K101" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L101" s="13" t="s">
         <v>1066</v>
@@ -12176,10 +12176,10 @@
         <v>84</v>
       </c>
       <c r="J102" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K102" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L102" s="13" t="s">
         <v>1</v>
@@ -12926,10 +12926,10 @@
         <v>84</v>
       </c>
       <c r="J117" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K117" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L117" s="13" t="s">
         <v>1</v>
@@ -12976,10 +12976,10 @@
         <v>84</v>
       </c>
       <c r="J118" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K118" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L118" s="13" t="s">
         <v>1</v>
@@ -13026,10 +13026,10 @@
         <v>84</v>
       </c>
       <c r="J119" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K119" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L119" s="13" t="s">
         <v>1</v>
@@ -13076,10 +13076,10 @@
         <v>84</v>
       </c>
       <c r="J120" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K120" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L120" s="13" t="s">
         <v>1066</v>
@@ -13126,10 +13126,10 @@
         <v>84</v>
       </c>
       <c r="J121" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K121" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L121" s="13" t="s">
         <v>1066</v>
@@ -13476,10 +13476,10 @@
         <v>84</v>
       </c>
       <c r="J128" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K128" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L128" s="13" t="s">
         <v>1</v>
@@ -13526,10 +13526,10 @@
         <v>84</v>
       </c>
       <c r="J129" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K129" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L129" s="13" t="s">
         <v>1</v>
@@ -13576,10 +13576,10 @@
         <v>84</v>
       </c>
       <c r="J130" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K130" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L130" s="13" t="s">
         <v>1</v>
@@ -13626,10 +13626,10 @@
         <v>84</v>
       </c>
       <c r="J131" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K131" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L131" s="13" t="s">
         <v>1</v>
@@ -13676,10 +13676,10 @@
         <v>84</v>
       </c>
       <c r="J132" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K132" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L132" s="13" t="s">
         <v>1</v>
@@ -13726,10 +13726,10 @@
         <v>84</v>
       </c>
       <c r="J133" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K133" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L133" s="13" t="s">
         <v>1</v>
@@ -13776,10 +13776,10 @@
         <v>84</v>
       </c>
       <c r="J134" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K134" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L134" s="13" t="s">
         <v>1</v>
@@ -13826,10 +13826,10 @@
         <v>84</v>
       </c>
       <c r="J135" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K135" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L135" s="13" t="s">
         <v>1</v>
@@ -13876,10 +13876,10 @@
         <v>84</v>
       </c>
       <c r="J136" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K136" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L136" s="13" t="s">
         <v>1</v>
@@ -13926,10 +13926,10 @@
         <v>84</v>
       </c>
       <c r="J137" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K137" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L137" s="13" t="s">
         <v>1</v>
@@ -13976,10 +13976,10 @@
         <v>84</v>
       </c>
       <c r="J138" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K138" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L138" s="13" t="s">
         <v>1</v>
@@ -14026,10 +14026,10 @@
         <v>84</v>
       </c>
       <c r="J139" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K139" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L139" s="13" t="s">
         <v>1</v>
@@ -14076,10 +14076,10 @@
         <v>84</v>
       </c>
       <c r="J140" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K140" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L140" s="13" t="s">
         <v>1</v>
@@ -14126,10 +14126,10 @@
         <v>84</v>
       </c>
       <c r="J141" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K141" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L141" s="13" t="s">
         <v>1</v>
@@ -14176,10 +14176,10 @@
         <v>84</v>
       </c>
       <c r="J142" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K142" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L142" s="13" t="s">
         <v>1</v>
@@ -14226,10 +14226,10 @@
         <v>84</v>
       </c>
       <c r="J143" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K143" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L143" s="13" t="s">
         <v>1</v>
@@ -14276,10 +14276,10 @@
         <v>84</v>
       </c>
       <c r="J144" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K144" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L144" s="13" t="s">
         <v>1</v>
@@ -14326,10 +14326,10 @@
         <v>84</v>
       </c>
       <c r="J145" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K145" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L145" s="13" t="s">
         <v>1</v>
@@ -14376,10 +14376,10 @@
         <v>84</v>
       </c>
       <c r="J146" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K146" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L146" s="13" t="s">
         <v>1</v>
@@ -14426,10 +14426,10 @@
         <v>84</v>
       </c>
       <c r="J147" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K147" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L147" s="13" t="s">
         <v>1</v>
@@ -14726,10 +14726,10 @@
         <v>84</v>
       </c>
       <c r="J153" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K153" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L153" s="13" t="s">
         <v>1</v>
@@ -14776,10 +14776,10 @@
         <v>84</v>
       </c>
       <c r="J154" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K154" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L154" s="13" t="s">
         <v>1</v>
@@ -14826,10 +14826,10 @@
         <v>84</v>
       </c>
       <c r="J155" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K155" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L155" s="13" t="s">
         <v>370</v>
@@ -14876,10 +14876,10 @@
         <v>84</v>
       </c>
       <c r="J156" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K156" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L156" s="13" t="s">
         <v>370</v>
@@ -18326,10 +18326,10 @@
         <v>14</v>
       </c>
       <c r="J225" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K225" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L225" s="13" t="s">
         <v>1</v>
@@ -18376,10 +18376,10 @@
         <v>14</v>
       </c>
       <c r="J226" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K226" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L226" s="13" t="s">
         <v>1</v>
@@ -18426,10 +18426,10 @@
         <v>14</v>
       </c>
       <c r="J227" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K227" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L227" s="13" t="s">
         <v>1</v>
@@ -18476,10 +18476,10 @@
         <v>14</v>
       </c>
       <c r="J228" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K228" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L228" s="13" t="s">
         <v>1</v>
@@ -19576,10 +19576,10 @@
         <v>84</v>
       </c>
       <c r="J250" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K250" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L250" s="13" t="s">
         <v>370</v>
@@ -19626,10 +19626,10 @@
         <v>84</v>
       </c>
       <c r="J251" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K251" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L251" s="13" t="s">
         <v>370</v>
@@ -19676,10 +19676,10 @@
         <v>84</v>
       </c>
       <c r="J252" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K252" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L252" s="13" t="s">
         <v>370</v>
@@ -19726,10 +19726,10 @@
         <v>84</v>
       </c>
       <c r="J253" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K253" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L253" s="13" t="s">
         <v>34</v>
@@ -19776,10 +19776,10 @@
         <v>84</v>
       </c>
       <c r="J254" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K254" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L254" s="13" t="s">
         <v>1</v>
@@ -19826,10 +19826,10 @@
         <v>84</v>
       </c>
       <c r="J255" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K255" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L255" s="13" t="s">
         <v>1</v>
@@ -19876,10 +19876,10 @@
         <v>84</v>
       </c>
       <c r="J256" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K256" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L256" s="13" t="s">
         <v>1</v>
@@ -19926,10 +19926,10 @@
         <v>84</v>
       </c>
       <c r="J257" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K257" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L257" s="13" t="s">
         <v>1</v>
@@ -21826,10 +21826,10 @@
         <v>84</v>
       </c>
       <c r="J295" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K295" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L295" s="13" t="s">
         <v>1</v>
@@ -21876,10 +21876,10 @@
         <v>84</v>
       </c>
       <c r="J296" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K296" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L296" s="13" t="s">
         <v>1</v>
@@ -21926,10 +21926,10 @@
         <v>84</v>
       </c>
       <c r="J297" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K297" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L297" s="13" t="s">
         <v>1</v>
@@ -22726,10 +22726,10 @@
         <v>14</v>
       </c>
       <c r="J313" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K313" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L313" s="13" t="s">
         <v>370</v>
@@ -22776,10 +22776,10 @@
         <v>14</v>
       </c>
       <c r="J314" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K314" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L314" s="13" t="s">
         <v>1</v>
@@ -23676,7 +23676,7 @@
         <v>799</v>
       </c>
       <c r="J332" s="12">
-        <v>619</v>
+        <v>548</v>
       </c>
       <c r="K332" s="12">
         <v>8</v>
@@ -23726,7 +23726,7 @@
         <v>799</v>
       </c>
       <c r="J333" s="12">
-        <v>619</v>
+        <v>548</v>
       </c>
       <c r="K333" s="12">
         <v>8</v>
@@ -29274,10 +29274,10 @@
         <v>84</v>
       </c>
       <c r="J444" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K444" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L444" s="17" t="s">
         <v>1</v>
@@ -29324,10 +29324,10 @@
         <v>84</v>
       </c>
       <c r="J445" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K445" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L445" s="17" t="s">
         <v>1</v>
@@ -29724,10 +29724,10 @@
         <v>14</v>
       </c>
       <c r="J453" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K453" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L453" s="13" t="s">
         <v>1</v>
@@ -30374,10 +30374,10 @@
         <v>84</v>
       </c>
       <c r="J466" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K466" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L466" s="13" t="s">
         <v>1</v>
@@ -30424,10 +30424,10 @@
         <v>84</v>
       </c>
       <c r="J467" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K467" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L467" s="13" t="s">
         <v>1</v>
@@ -30474,10 +30474,10 @@
         <v>84</v>
       </c>
       <c r="J468" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K468" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L468" s="13" t="s">
         <v>1</v>
@@ -30524,10 +30524,10 @@
         <v>84</v>
       </c>
       <c r="J469" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K469" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L469" s="13" t="s">
         <v>1</v>
@@ -30572,10 +30572,10 @@
         <v>84</v>
       </c>
       <c r="J470" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K470" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L470" s="13" t="s">
         <v>1</v>
@@ -34520,10 +34520,10 @@
         <v>14</v>
       </c>
       <c r="J549" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K549" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L549" t="s">
         <v>1</v>
@@ -34620,10 +34620,10 @@
         <v>14</v>
       </c>
       <c r="J551" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K551" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L551" t="s">
         <v>1</v>
@@ -34670,10 +34670,10 @@
         <v>14</v>
       </c>
       <c r="J552" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K552" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L552" t="s">
         <v>1</v>
@@ -35020,10 +35020,10 @@
         <v>14</v>
       </c>
       <c r="J559" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K559" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L559" s="11" t="s">
         <v>1</v>
@@ -35070,10 +35070,10 @@
         <v>14</v>
       </c>
       <c r="J560" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K560" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L560" s="11" t="s">
         <v>1</v>
@@ -35120,10 +35120,10 @@
         <v>14</v>
       </c>
       <c r="J561" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K561" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L561" s="11" t="s">
         <v>34</v>
@@ -35170,10 +35170,10 @@
         <v>14</v>
       </c>
       <c r="J562" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K562" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L562" s="11" t="s">
         <v>1</v>
@@ -35270,10 +35270,10 @@
         <v>14</v>
       </c>
       <c r="J564" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K564" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L564" s="11" t="s">
         <v>1</v>
@@ -35370,10 +35370,10 @@
         <v>14</v>
       </c>
       <c r="J566" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K566" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L566" s="11" t="s">
         <v>1</v>
@@ -36920,10 +36920,10 @@
         <v>84</v>
       </c>
       <c r="J597" s="12">
-        <v>637</v>
+        <v>548</v>
       </c>
       <c r="K597" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L597" t="s">
         <v>1</v>
@@ -36970,10 +36970,10 @@
         <v>84</v>
       </c>
       <c r="J598" s="12">
-        <v>637</v>
+        <v>548</v>
       </c>
       <c r="K598" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L598" t="s">
         <v>1</v>
@@ -37420,10 +37420,10 @@
         <v>84</v>
       </c>
       <c r="J607" s="12">
-        <v>637</v>
+        <v>548</v>
       </c>
       <c r="K607" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L607" t="s">
         <v>1</v>
@@ -37770,10 +37770,10 @@
         <v>14</v>
       </c>
       <c r="J614" s="12">
-        <v>637</v>
+        <v>1468</v>
       </c>
       <c r="K614" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L614" t="s">
         <v>113</v>
@@ -40120,10 +40120,10 @@
         <v>84</v>
       </c>
       <c r="J661" s="12">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="K661" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L661" t="s">
         <v>118</v>
@@ -40170,10 +40170,10 @@
         <v>14</v>
       </c>
       <c r="J662" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K662" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L662" s="6" t="s">
         <v>1</v>
@@ -40220,10 +40220,10 @@
         <v>14</v>
       </c>
       <c r="J663" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K663" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L663" s="6" t="s">
         <v>1</v>
@@ -40270,10 +40270,10 @@
         <v>14</v>
       </c>
       <c r="J664" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K664" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L664" s="6" t="s">
         <v>113</v>
@@ -40320,10 +40320,10 @@
         <v>14</v>
       </c>
       <c r="J665" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K665" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L665" s="6" t="s">
         <v>1</v>
@@ -41870,10 +41870,10 @@
         <v>14</v>
       </c>
       <c r="J696" s="12">
-        <v>1379</v>
+        <v>1468</v>
       </c>
       <c r="K696" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L696" s="1" t="s">
         <v>1</v>
@@ -42042,7 +42042,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P699" xr:uid="{8FFE9ED2-3DCA-49C2-9159-BF0A8C11598C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>